--- a/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.920562519582156</v>
+        <v>-3.477677960433151</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.61026744176696</v>
+        <v>-7.532522005429623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.457932269652606</v>
+        <v>10.34270451198807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.53622396454193</v>
+        <v>-10.78413240137563</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.31134759551871</v>
+        <v>-11.03479202628534</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>13.94792371441216</v>
+        <v>14.00687379532632</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.661979119286808</v>
+        <v>-3.757950852418231</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.927428858747758</v>
+        <v>-7.268378040307747</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>14.2441741321358</v>
+        <v>14.61159189799718</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.22094498376218</v>
+        <v>14.20416673040349</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.569728054850883</v>
+        <v>9.524493712098113</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.6812800823934</v>
+        <v>27.41532303099968</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.646535978719676</v>
+        <v>6.711412646832759</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.460907667839471</v>
+        <v>7.000021313274815</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>29.25483394095648</v>
+        <v>29.31245188735706</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.515441894981363</v>
+        <v>8.438426005822528</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.368815492828137</v>
+        <v>4.828335612732961</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>26.12888468483663</v>
+        <v>26.06497009123092</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05801325922675209</v>
+        <v>-0.07124365986171351</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1580745064559488</v>
+        <v>-0.1537141103809978</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1975143071285133</v>
+        <v>0.2024962667504089</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1700472606984801</v>
+        <v>-0.1737009297901263</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1826559256054977</v>
+        <v>-0.1773724423164924</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2272843418064281</v>
+        <v>0.2275474492460639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06852209809775266</v>
+        <v>-0.06973404846276968</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1305388091113637</v>
+        <v>-0.131295482859734</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2617585731751622</v>
+        <v>0.2668128320392178</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3450402305583894</v>
+        <v>0.35693707325198</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2418700889875697</v>
+        <v>0.2344006822532181</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6578515446362811</v>
+        <v>0.672150679518148</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1458012658180694</v>
+        <v>0.1292437233912198</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1269815233296593</v>
+        <v>0.1332805853527362</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5646249215676796</v>
+        <v>0.5727211347912047</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1815531426058383</v>
+        <v>0.1790782729963195</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1130238404943452</v>
+        <v>0.1024887170632719</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5619005804977701</v>
+        <v>0.5537847791391731</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.347790235139136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.578312191574362</v>
+        <v>-3.578312191574367</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.044154712283621</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.74094804935422</v>
+        <v>-4.533976415328475</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.935718140139366</v>
+        <v>-9.836585421011218</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.83820647600099</v>
+        <v>-10.26035090623662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7579419068572908</v>
+        <v>-0.7404178712099913</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.01530046348685</v>
+        <v>-11.82098243246407</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.62897897524763</v>
+        <v>-9.014112792627223</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8382693003978745</v>
+        <v>-0.9378592092510268</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.83643189383878</v>
+        <v>-9.038937106852634</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.142263713594208</v>
+        <v>-7.993006179509255</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.121469537600101</v>
+        <v>8.312794785631079</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.450686001964741</v>
+        <v>3.080854854797175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.396792206953107</v>
+        <v>3.547349592708228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.03405112271351</v>
+        <v>11.14378619193727</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7567629244752282</v>
+        <v>-0.1701777637070042</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.119594603034665</v>
+        <v>2.738041396022416</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.1914272367957</v>
+        <v>8.002681652888251</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1945694871982504</v>
+        <v>-0.1090643974770201</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9997511277865399</v>
+        <v>1.169782375143787</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.06895147029290727</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.07369932685338432</v>
+        <v>-0.07369932685338443</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.0858478749194258</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09020560406324665</v>
+        <v>-0.08956923164250839</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1921928374940715</v>
+        <v>-0.1946780774320624</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2088801742422352</v>
+        <v>-0.2032718042204859</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01184512610049229</v>
+        <v>-0.01198746266715904</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1969965477872932</v>
+        <v>-0.1929966042299237</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1530543183146768</v>
+        <v>-0.1444328617766975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0147331862610556</v>
+        <v>-0.01688547772182623</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1597402532111395</v>
+        <v>-0.1616683868253775</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1452801786575966</v>
+        <v>-0.1442779434796132</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.180759844999463</v>
+        <v>0.1809369495426013</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07463665838315779</v>
+        <v>0.0692232253552931</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07596255145927261</v>
+        <v>0.07720407874130761</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.198079429459035</v>
+        <v>0.2021885266749746</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0118058835535828</v>
+        <v>-0.003195592067337891</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03859236073193913</v>
+        <v>0.05011202992121742</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1635800778544093</v>
+        <v>0.1540433924061429</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0037506174009618</v>
+        <v>-0.002460102976420064</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.01929079962864578</v>
+        <v>0.02201396889824427</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-35.76272734294628</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-17.64799675968591</v>
+        <v>-17.6479967596859</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-8.61042700346848</v>
@@ -1092,7 +1092,7 @@
         <v>-24.20227013340381</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.927923953300516</v>
+        <v>-3.927923953300505</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.525853658314177</v>
+        <v>-7.685713673401273</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-19.07627440056623</v>
+        <v>-19.45949724746002</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.053596464339404</v>
+        <v>2.71630446662663</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-24.54332330204602</v>
+        <v>-24.55262975050204</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-43.19249523801454</v>
+        <v>-42.75355858390485</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-24.39220913908663</v>
+        <v>-24.00646807830132</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-14.09895477040273</v>
+        <v>-14.29728747993752</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-29.42700587239055</v>
+        <v>-28.74764156195517</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.371768358200471</v>
+        <v>-9.264886216228403</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.559732491620945</v>
+        <v>7.927993965328474</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.453142186399307</v>
+        <v>-4.518246860978719</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.02581311220787</v>
+        <v>18.57846444952122</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-9.960593533598136</v>
+        <v>-9.785465824822511</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-28.73950281179053</v>
+        <v>-28.4461561358959</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-10.81645941392754</v>
+        <v>-10.26038453755026</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-3.217919846179652</v>
+        <v>-3.461489297304428</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-18.55092074342909</v>
+        <v>-18.97517336040654</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.042495699905483</v>
+        <v>1.045074502429087</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.5150076859843894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2541432001622353</v>
+        <v>-0.2541432001622352</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1532821572829663</v>
@@ -1197,7 +1197,7 @@
         <v>-0.430846945883039</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.06992459920545271</v>
+        <v>-0.06992459920545252</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1635248586830997</v>
+        <v>-0.1693034390129796</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4151070191349617</v>
+        <v>-0.4191260450807409</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.06871854885498489</v>
+        <v>0.05932985672997852</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3389055011637344</v>
+        <v>-0.3433492607884686</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5928219694827869</v>
+        <v>-0.5958324014055585</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3327944130496263</v>
+        <v>-0.3334137147643091</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.237236306344618</v>
+        <v>-0.2441849295452985</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5036106796041017</v>
+        <v>-0.4935243478842286</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1550048704516526</v>
+        <v>-0.1557136270161645</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2183202785671921</v>
+        <v>0.2134143388959712</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1161357971348572</v>
+        <v>-0.1182415729392623</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4846503273199746</v>
+        <v>0.495819887053306</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1495204325205342</v>
+        <v>-0.1536522797470029</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.4267060088052699</v>
+        <v>-0.4258109522889799</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1663112512161508</v>
+        <v>-0.163248621712945</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.05706831055889764</v>
+        <v>-0.06437161217844621</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3472062802008679</v>
+        <v>-0.3542652033385744</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.0208339727875912</v>
+        <v>0.02066419702504254</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.6892877113198</v>
+        <v>-10.94827616241056</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.069656178355656</v>
+        <v>7.475793013373204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.426788580164248</v>
+        <v>-3.79335038150627</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-17.27459815546443</v>
+        <v>-16.87397731822558</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.892293388029423</v>
+        <v>-4.091982593168339</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.92786161851117</v>
+        <v>-13.36251298019688</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.60445326415927</v>
+        <v>-12.04771950658934</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.591841835381309</v>
+        <v>3.129021789638589</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.365776208775918</v>
+        <v>-6.795040413986802</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.619696687898334</v>
+        <v>3.419653423718483</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.9675243219034</v>
+        <v>22.3315880232402</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.75582656307436</v>
+        <v>13.60035061063603</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.469435830049964</v>
+        <v>-1.702012849317842</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.11495395072992</v>
+        <v>10.79551367040494</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.3645725432255598</v>
+        <v>-0.07094283410565383</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.3692395915559</v>
+        <v>-1.722243669230494</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.90223457013133</v>
+        <v>13.57643350001316</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.705275893756938</v>
+        <v>4.195703218109488</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2439380543499123</v>
+        <v>-0.2452128135967083</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1634061974300842</v>
+        <v>0.1601604823306634</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05654505097272252</v>
+        <v>-0.08798703720743549</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.270635073467716</v>
+        <v>-0.2667907256337044</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05952042990746444</v>
+        <v>-0.0622363677685128</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2183970049556271</v>
+        <v>-0.212465289446664</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2144900607328097</v>
+        <v>-0.2234394561254125</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.06690464539944808</v>
+        <v>0.0585802112158788</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1197139610616395</v>
+        <v>-0.1255088964450192</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.09930545144588618</v>
+        <v>0.09273659590636821</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6046262784053953</v>
+        <v>0.5978926825826149</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3919602055900226</v>
+        <v>0.3612140652134505</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.04129543995270125</v>
+        <v>-0.03341929798997935</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1781835162445004</v>
+        <v>0.1895474162294721</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.003736779204004649</v>
+        <v>-0.002898552291152411</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.02765907923172174</v>
+        <v>-0.03383830990722987</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2926501547728487</v>
+        <v>0.2784462208642884</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.09641918702572376</v>
+        <v>0.08724461668625384</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-9.681919085488394</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.293010210463536</v>
+        <v>2.293010210463548</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>10.0177867922326</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9043460938318287</v>
+        <v>1.81842803190479</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.40186376794454</v>
+        <v>-12.13992331077456</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.955398333350761</v>
+        <v>-1.82557904980922</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3107759942061286</v>
+        <v>-0.4361291608463747</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-19.28968717769876</v>
+        <v>-18.94819117862612</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.934139245196532</v>
+        <v>-6.058509628953238</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.259968373539392</v>
+        <v>3.340301700468289</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-12.92569592970489</v>
+        <v>-12.64484720802334</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.416098368689113</v>
+        <v>-1.001007634608644</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20.47915769386012</v>
+        <v>19.96100723012</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.612521349855093</v>
+        <v>6.198257901663133</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15.15533734603764</v>
+        <v>16.33423788009619</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.20667850230245</v>
+        <v>18.71878261060308</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.07565735834628853</v>
+        <v>-0.7489890208453435</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.30832737341577</v>
+        <v>10.86762165808119</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>17.17525139236944</v>
+        <v>17.19529357679987</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4662703593550486</v>
+        <v>0.828871912116959</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.20384312121201</v>
+        <v>11.00059120753259</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.1979301358006942</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04687663864384917</v>
+        <v>0.0468766386438494</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2415205764706598</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.03532165044820664</v>
+        <v>0.04716934780866137</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3173702033496401</v>
+        <v>-0.3080314782672798</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.07899113675600736</v>
+        <v>-0.05187729029351799</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.00647499574196003</v>
+        <v>-0.007007074343186769</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3588210894421428</v>
+        <v>-0.3603421625201572</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1103046772056774</v>
+        <v>-0.1122807700150219</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07050753378335368</v>
+        <v>0.072827257546823</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2883503033097556</v>
+        <v>-0.2866075556897207</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.05122938682345584</v>
+        <v>-0.02177328535351188</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7078561984060061</v>
+        <v>0.6931771370839742</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2235533916153885</v>
+        <v>0.2126694016558545</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5049131026576017</v>
+        <v>0.5554070062597865</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4467110928443602</v>
+        <v>0.4371776239389464</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.006843064280254307</v>
+        <v>-0.01988914024852378</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2389599632341628</v>
+        <v>0.2547465333199181</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4486324626590287</v>
+        <v>0.4509897445192314</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.01366355853426731</v>
+        <v>0.02268772055347626</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2694117890242877</v>
+        <v>0.294010416406514</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-23.26050298623594</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-6.362695091922522</v>
+        <v>-6.362695091922554</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-4.643416992349236</v>
@@ -1734,7 +1734,7 @@
         <v>-15.92746058449328</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2.195058995252142</v>
+        <v>2.195058995252153</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.273286396901593</v>
+        <v>-5.065276830826514</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-17.08052897802189</v>
+        <v>-16.89211865407595</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2.801553771322997</v>
+        <v>2.248490138355907</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-21.57076996220933</v>
+        <v>-21.24010495979854</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-31.13263181423897</v>
+        <v>-32.17851456061983</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-13.9725163013511</v>
+        <v>-14.62757956483359</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-10.6281721776857</v>
+        <v>-10.21539635245274</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-21.85951452986738</v>
+        <v>-21.77753574490221</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.94402361364336</v>
+        <v>-3.65034659633551</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>12.79273568659667</v>
+        <v>12.2190096003021</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.08310209694838258</v>
+        <v>-0.4205963504877478</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18.98229171318673</v>
+        <v>19.12396921166331</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-4.976304075188515</v>
+        <v>-4.831425344705657</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-15.06096328762959</v>
+        <v>-15.00268698146405</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.5185018562278484</v>
+        <v>0.563189986877636</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.651625301818645</v>
+        <v>1.257294438111665</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-10.09647046912024</v>
+        <v>-9.279601123231215</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.457646739910826</v>
+        <v>7.550444079710082</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.338705227915785</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.09264967711762295</v>
+        <v>-0.09264967711762344</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.08260081643861701</v>
@@ -1839,7 +1839,7 @@
         <v>-0.2833304116862068</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.03904746557061323</v>
+        <v>0.03904746557061342</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.08977087029154567</v>
+        <v>-0.1050015283026258</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3596857404139665</v>
+        <v>-0.350213942608451</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.05483465977963643</v>
+        <v>0.04332970836527576</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2947317869516207</v>
+        <v>-0.2912599157401412</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4413519221359099</v>
+        <v>-0.443653080511123</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1926379983511919</v>
+        <v>-0.2038662047705969</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.179884367315085</v>
+        <v>-0.1782414124037508</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3719887994453258</v>
+        <v>-0.373701372139182</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.04904156517409673</v>
+        <v>-0.06032137442307338</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3398194730848086</v>
+        <v>0.3162283690756127</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.003388098562910043</v>
+        <v>-0.002943444799402</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4799257794801436</v>
+        <v>0.4915324045936474</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.0780021931677037</v>
+        <v>-0.0734557649384355</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.2382667137837974</v>
+        <v>-0.2264497077397281</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.009491504605650538</v>
+        <v>0.009038664762991441</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.028086711628759</v>
+        <v>0.02247137953601215</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1905786506764702</v>
+        <v>-0.1746450258453153</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1399436551128054</v>
+        <v>0.142028957182383</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-8.110095047342957</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-5.272351181420165</v>
+        <v>-5.272351181420176</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-4.021126381163609</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.663939652220529</v>
+        <v>-9.346938621196374</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-12.8883568834156</v>
+        <v>-12.43773971896376</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.692646172918442</v>
+        <v>-2.618227418559171</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-9.27530871300139</v>
+        <v>-10.03968430358109</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-13.52285732328063</v>
+        <v>-14.23732593008916</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-10.11871164017691</v>
+        <v>-10.27669103000676</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-8.027169135771658</v>
+        <v>-7.938060765810594</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-12.02694744440346</v>
+        <v>-11.41079482447558</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.533152834451656</v>
+        <v>-4.750253991886578</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.328330818803189</v>
+        <v>1.69662932536313</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.514870872634954</v>
+        <v>-1.447126842949952</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.245972154222862</v>
+        <v>9.145627495528458</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.849065171537298</v>
+        <v>1.227971336064046</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-3.060361869289645</v>
+        <v>-3.105482262988036</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.03810596714814096</v>
+        <v>-0.04581634056299453</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.2062620625925533</v>
+        <v>0.0235412692913317</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.792977751640801</v>
+        <v>-3.572825669727576</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.058437325051068</v>
+        <v>3.096418192967795</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.1416384966256531</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.09207880926913375</v>
+        <v>-0.09207880926913395</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.07801642897574841</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1985750697574002</v>
+        <v>-0.1942719952517999</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2624482957384916</v>
+        <v>-0.2624223385025985</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05484524289969214</v>
+        <v>-0.05404785463505523</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1534497954816337</v>
+        <v>-0.1738233177151022</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2264760353962738</v>
+        <v>-0.2451194204422906</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1699775830675177</v>
+        <v>-0.1743719933485034</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1490807256400943</v>
+        <v>-0.1514789787687864</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2211859676113845</v>
+        <v>-0.2132531800900596</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1022940566422303</v>
+        <v>-0.08915942779883874</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.0302355689007322</v>
+        <v>0.03925927602531197</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.03453316751194722</v>
+        <v>-0.03471832104525092</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2131530486365783</v>
+        <v>0.2155198936407018</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.03493956399696799</v>
+        <v>0.02130050950413918</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.05312983437725597</v>
+        <v>-0.0589421196761228</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.001210424098602715</v>
+        <v>-0.0007361951941937935</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.004511095874768904</v>
+        <v>-0.001168843872732323</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.07599696037361048</v>
+        <v>-0.07252185658783872</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.0612003964600905</v>
+        <v>0.0629928071665565</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-6.341488132983169</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-7.583979736914809</v>
+        <v>-7.583979736914803</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2.716394909065101</v>
@@ -2153,7 +2153,7 @@
         <v>-4.613601125004152</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-7.004599796075118</v>
+        <v>-7.004599796075111</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.044841753074751</v>
@@ -2162,7 +2162,7 @@
         <v>-5.435919775584996</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-7.316021080446411</v>
+        <v>-7.316021080446417</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.524845859957375</v>
+        <v>-2.160144013007919</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-11.37790571500508</v>
+        <v>-11.16591500523031</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-11.99951918267279</v>
+        <v>-12.48268794014242</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.248155699280552</v>
+        <v>-2.211087123387976</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-9.533532592650056</v>
+        <v>-9.791262523914199</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-11.881341908159</v>
+        <v>-11.38888158079209</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.208160665431545</v>
+        <v>-0.5954108800415071</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-9.014321141576341</v>
+        <v>-8.642891003033888</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-10.80637954917181</v>
+        <v>-10.78351802740836</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>9.134797064996707</v>
+        <v>7.987083798686037</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.404452273453709</v>
+        <v>-1.500381882197039</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-2.612795767970727</v>
+        <v>-2.84913567941491</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.728464670534303</v>
+        <v>7.676247527888054</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.2324387501277306</v>
+        <v>0.3088339998144011</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-2.523475095348946</v>
+        <v>-2.353723014979628</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.890819494687308</v>
+        <v>6.385446321188202</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.945743480471188</v>
+        <v>-1.70893723053603</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-4.108346300708188</v>
+        <v>-4.08056946574937</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.1658970914171351</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.198401408839157</v>
+        <v>-0.1984014088391568</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.05779414235402543</v>
@@ -2258,7 +2258,7 @@
         <v>-0.09815918859712147</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1490301857054618</v>
+        <v>-0.1490301857054616</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.07126199760232584</v>
@@ -2267,7 +2267,7 @@
         <v>-0.1272231969438129</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.1712254097168965</v>
+        <v>-0.1712254097168966</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.03755570825751708</v>
+        <v>-0.05187215115273283</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2843155754321286</v>
+        <v>-0.2732419992020906</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2986313973510907</v>
+        <v>-0.3081231009375225</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.04769653916479567</v>
+        <v>-0.04450486105833777</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1982272165042948</v>
+        <v>-0.1981640213732318</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2391917468127698</v>
+        <v>-0.2305741232293939</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.003847971661537575</v>
+        <v>-0.01233456762105146</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2017463478275147</v>
+        <v>-0.1951524334829719</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2406731842853541</v>
+        <v>-0.2424401434847744</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2589368073091097</v>
+        <v>0.2256462565378962</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.04227123473639651</v>
+        <v>-0.04208793775292347</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.07338296988473046</v>
+        <v>-0.08217543060857924</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1748710503198905</v>
+        <v>0.1718904830124094</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.002712675207640866</v>
+        <v>0.006556544598359242</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.05775013954831464</v>
+        <v>-0.05557172636596434</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1708043816227336</v>
+        <v>0.158375212274892</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.04864107673667889</v>
+        <v>-0.04131772380312921</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1001940768909962</v>
+        <v>-0.102136735967611</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-3.626125643856315</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2.903219259725232</v>
+        <v>2.903219259725237</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-2.76485607951229</v>
@@ -2367,7 +2367,7 @@
         <v>-9.226008945811953</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-4.115471754696898</v>
+        <v>-4.115471754696909</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-0.6890389783901218</v>
@@ -2376,7 +2376,7 @@
         <v>-6.441628500511598</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-0.6143329823027899</v>
+        <v>-0.6143329823027954</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.101309333462187</v>
+        <v>-0.9950774601628875</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-6.111079840846532</v>
+        <v>-6.180992656267703</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.5156777454488906</v>
+        <v>0.2650772467025525</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-5.283945373115437</v>
+        <v>-5.076720746372455</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-11.99917925782206</v>
+        <v>-11.48073873259531</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-6.252943986528237</v>
+        <v>-6.37640572705808</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.545947527250311</v>
+        <v>-2.367013270122131</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-8.156700488651129</v>
+        <v>-8.104084938893381</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-2.109349138940363</v>
+        <v>-2.557821128979421</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.777158377837825</v>
+        <v>3.834232632327314</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-1.36078694066017</v>
+        <v>-1.270768531477348</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.369340230965062</v>
+        <v>5.35168532390617</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-0.4913799009206741</v>
+        <v>-0.3432611219230688</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-6.946132244020757</v>
+        <v>-6.590526803292494</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.843886430080177</v>
+        <v>-1.684090510634902</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.018527805255033</v>
+        <v>1.139232427774874</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-4.624924248497899</v>
+        <v>-4.635126949466654</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.194584598732348</v>
+        <v>1.113103568692199</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.08517312421271032</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.06819296376127125</v>
+        <v>0.06819296376127137</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.04846085002384306</v>
@@ -2472,7 +2472,7 @@
         <v>-0.1617083215125231</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.07213368571318508</v>
+        <v>-0.07213368571318528</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.01380143846403421</v>
@@ -2481,7 +2481,7 @@
         <v>-0.1290257041273564</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.01230507869306356</v>
+        <v>-0.01230507869306368</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.02485943358539219</v>
+        <v>-0.02216886499132938</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1378673341610508</v>
+        <v>-0.142135339869318</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.0121280228963354</v>
+        <v>0.007031632425430158</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.090003253115554</v>
+        <v>-0.08761595007216688</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2072603633800078</v>
+        <v>-0.1979161141320867</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1082181146759748</v>
+        <v>-0.1101295887529057</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.05033872864344263</v>
+        <v>-0.04669631687511778</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1629107783470911</v>
+        <v>-0.1600420589945836</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.0414983127550717</v>
+        <v>-0.04982402735510003</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.0910771880965493</v>
+        <v>0.09378980016048208</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.03303183879161643</v>
+        <v>-0.03072744671693687</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1293519217786388</v>
+        <v>0.1309954207744286</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.008781877308073192</v>
+        <v>-0.007179694527190137</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.1250198027733339</v>
+        <v>-0.117952239079592</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.03285670191205647</v>
+        <v>-0.03041844025013107</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.02053210734817386</v>
+        <v>0.02348066943038718</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.0956907917024034</v>
+        <v>-0.09527824353824858</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.02448128473204212</v>
+        <v>0.02235916541314365</v>
       </c>
     </row>
     <row r="58">
